--- a/pv_result_0_Asian.xlsx
+++ b/pv_result_0_Asian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>CONTENT</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>STAT_COUNT</t>
+  </si>
+  <si>
+    <t>GAP_COUNT</t>
   </si>
   <si>
     <t>F</t>
@@ -416,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,119 +444,137 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.02111161838566898</v>
+        <v>-0.02010446554375009</v>
       </c>
       <c r="D2">
-        <v>0.02817566272501001</v>
+        <v>0.0345991183836295</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.03913197232578718</v>
+        <v>-0.03706726678442682</v>
       </c>
       <c r="D3">
-        <v>0.1685748727867688</v>
+        <v>0.1713905180499188</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.03383613752669301</v>
+        <v>-0.03310446154947232</v>
       </c>
       <c r="D4">
-        <v>0.055155485073974</v>
+        <v>0.05503675842954633</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03673088287340233</v>
+        <v>-0.04019958866440649</v>
       </c>
       <c r="D5">
-        <v>0.03250101686616877</v>
+        <v>0.01764135372152935</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>7.688619279547747E-05</v>
+        <v>0.004467322249174732</v>
       </c>
       <c r="D6">
-        <v>0.9957192085885367</v>
+        <v>0.746316798413825</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
     </row>

--- a/pv_result_0_Asian.xlsx
+++ b/pv_result_0_Asian.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.02010446554375009</v>
+        <v>-0.02111161838567586</v>
       </c>
       <c r="D2">
-        <v>0.0345991183836295</v>
+        <v>0.02817566272496049</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.03706726678442682</v>
+        <v>-0.0391319723257858</v>
       </c>
       <c r="D3">
-        <v>0.1713905180499188</v>
+        <v>0.1685748727867884</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.03310446154947232</v>
+        <v>-0.03383613752669484</v>
       </c>
       <c r="D4">
-        <v>0.05503675842954633</v>
+        <v>0.0551554850739634</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.04019958866440649</v>
+        <v>-0.03673088287340349</v>
       </c>
       <c r="D5">
-        <v>0.01764135372152935</v>
+        <v>0.03250101686616512</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.004467322249174732</v>
+        <v>7.688619279481133E-05</v>
       </c>
       <c r="D6">
-        <v>0.746316798413825</v>
+        <v>0.9957192085885738</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/pv_result_0_Asian.xlsx
+++ b/pv_result_0_Asian.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.02111161838567586</v>
+        <v>-0.02003862709038795</v>
       </c>
       <c r="D2">
-        <v>0.02817566272496049</v>
+        <v>0.03520308362869527</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0391319723257858</v>
+        <v>-0.0464637408480128</v>
       </c>
       <c r="D3">
-        <v>0.1685748727867884</v>
+        <v>0.07684910940250715</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.03383613752669484</v>
+        <v>-0.03313992474571593</v>
       </c>
       <c r="D4">
-        <v>0.0551554850739634</v>
+        <v>0.055042080923397</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03673088287340349</v>
+        <v>-0.03632234344432285</v>
       </c>
       <c r="D5">
-        <v>0.03250101686616512</v>
+        <v>0.029698417892791</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>7.688619279481133E-05</v>
+        <v>0.003914832214521533</v>
       </c>
       <c r="D6">
-        <v>0.9957192085885738</v>
+        <v>0.7769905426759678</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/pv_result_0_Asian.xlsx
+++ b/pv_result_0_Asian.xlsx
@@ -456,10 +456,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>-0.02003862709038795</v>
+        <v>-0.02092126337320231</v>
       </c>
       <c r="D2">
-        <v>0.03520308362869527</v>
+        <v>0.02957192569763986</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0464637408480128</v>
+        <v>-0.03915387438036155</v>
       </c>
       <c r="D3">
-        <v>0.07684910940250715</v>
+        <v>0.168203291626565</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>-0.03313992474571593</v>
+        <v>-0.03378536700662327</v>
       </c>
       <c r="D4">
-        <v>0.055042080923397</v>
+        <v>0.05544420668145041</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>-0.03632234344432285</v>
+        <v>-0.03671474174996617</v>
       </c>
       <c r="D5">
-        <v>0.029698417892791</v>
+        <v>0.03252266795034388</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.003914832214521533</v>
+        <v>8.474453905713518E-05</v>
       </c>
       <c r="D6">
-        <v>0.7769905426759678</v>
+        <v>0.9952802006326225</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>

--- a/pv_result_0_Asian.xlsx
+++ b/pv_result_0_Asian.xlsx
@@ -459,7 +459,7 @@
         <v>-0.02092126337320231</v>
       </c>
       <c r="D2">
-        <v>0.02957192569763986</v>
+        <v>0.02957192569763981</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -485,7 +485,7 @@
         <v>-0.03915387438036155</v>
       </c>
       <c r="D3">
-        <v>0.168203291626565</v>
+        <v>0.1682032916265647</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -511,7 +511,7 @@
         <v>-0.03378536700662327</v>
       </c>
       <c r="D4">
-        <v>0.05544420668145041</v>
+        <v>0.0554442066814503</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -537,7 +537,7 @@
         <v>-0.03671474174996617</v>
       </c>
       <c r="D5">
-        <v>0.03252266795034388</v>
+        <v>0.03252266795034381</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>

--- a/pv_result_0_Asian.xlsx
+++ b/pv_result_0_Asian.xlsx
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
